--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="406">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-12T13:48:42+00:00</t>
+    <t>2023-12-09T14:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1007,13 +1007,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Used to categorize the organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>https://termgit.elga.gv.at/ValueSet/hl7-at-organizationtype</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1610,7 +1604,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.3359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -9115,13 +9109,11 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9154,24 +9146,24 @@
         <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9197,16 +9189,16 @@
         <v>154</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9255,7 +9247,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9270,13 +9262,13 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9284,10 +9276,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9313,16 +9305,16 @@
         <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9371,7 +9363,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9389,7 +9381,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9400,10 +9392,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9426,19 +9418,19 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9487,7 +9479,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9496,19 +9488,19 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AJ69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -9516,10 +9508,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9542,19 +9534,19 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9603,7 +9595,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9612,19 +9604,19 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -9632,10 +9624,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9661,14 +9653,14 @@
         <v>212</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9717,7 +9709,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9735,7 +9727,7 @@
         <v>311</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>158</v>
@@ -9746,10 +9738,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9772,19 +9764,19 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9833,7 +9825,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9851,7 +9843,7 @@
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -9862,10 +9854,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9974,10 +9966,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10088,14 +10080,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10117,10 +10109,10 @@
         <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>133</v>
@@ -10175,7 +10167,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10204,10 +10196,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10233,14 +10225,14 @@
         <v>175</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10268,10 +10260,10 @@
         <v>180</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>74</v>
@@ -10289,7 +10281,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10307,7 +10299,7 @@
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10318,10 +10310,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10344,17 +10336,17 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10403,7 +10395,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10418,10 +10410,10 @@
         <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10432,10 +10424,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10458,17 +10450,17 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10517,7 +10509,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10532,10 +10524,10 @@
         <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10546,10 +10538,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10572,19 +10564,19 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="O79" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10633,28 +10625,28 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI79" t="s" s="2">
+      <c r="AK79" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -10662,10 +10654,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10688,17 +10680,17 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10747,7 +10739,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T14:06:07+00:00</t>
+    <t>2024-01-13T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>Organization.identifier:VPNR.assigner.display</t>
+  </si>
+  <si>
+    <t>Dachverband der österreichischen Sozialversicherungsträger</t>
   </si>
   <si>
     <t>Organization.identifier:VKZ</t>
@@ -7145,7 +7148,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>74</v>
@@ -7216,13 +7219,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>74</v>
@@ -7332,7 +7335,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>153</v>
@@ -7444,7 +7447,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>159</v>
@@ -7558,7 +7561,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>164</v>
@@ -7674,7 +7677,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>174</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>184</v>
@@ -7819,7 +7822,7 @@
         <v>98</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>186</v>
@@ -7835,7 +7838,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>74</v>
@@ -7906,7 +7909,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>194</v>
@@ -8020,7 +8023,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>203</v>
@@ -8132,7 +8135,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>211</v>
@@ -8246,7 +8249,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>236</v>
@@ -8358,7 +8361,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>238</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>240</v>
@@ -8586,7 +8589,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>247</v>
@@ -8700,7 +8703,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>255</v>
@@ -8814,7 +8817,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>262</v>
@@ -8928,10 +8931,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8954,70 +8957,70 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q65" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q65" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9032,24 +9035,24 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9075,16 +9078,16 @@
         <v>175</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9113,7 +9116,7 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9131,7 +9134,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9146,24 +9149,24 @@
         <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9189,16 +9192,16 @@
         <v>154</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9247,7 +9250,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9262,13 +9265,13 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9276,10 +9279,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9305,16 +9308,16 @@
         <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9363,7 +9366,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9381,7 +9384,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9392,10 +9395,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9418,19 +9421,19 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9479,7 +9482,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9488,19 +9491,19 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -9508,10 +9511,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9534,19 +9537,19 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9595,7 +9598,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9604,19 +9607,19 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -9624,10 +9627,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9653,14 +9656,14 @@
         <v>212</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9709,7 +9712,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9724,10 +9727,10 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>158</v>
@@ -9738,10 +9741,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9764,19 +9767,19 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9825,7 +9828,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9843,7 +9846,7 @@
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -9854,10 +9857,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9966,10 +9969,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10080,14 +10083,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10109,10 +10112,10 @@
         <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>133</v>
@@ -10167,7 +10170,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10196,10 +10199,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10225,14 +10228,14 @@
         <v>175</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10260,10 +10263,10 @@
         <v>180</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>74</v>
@@ -10281,7 +10284,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10299,7 +10302,7 @@
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10310,10 +10313,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10336,17 +10339,17 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10395,7 +10398,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10410,10 +10413,10 @@
         <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10424,10 +10427,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10450,17 +10453,17 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10509,7 +10512,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10524,10 +10527,10 @@
         <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10538,10 +10541,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10564,19 +10567,19 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10625,7 +10628,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10634,19 +10637,19 @@
         <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -10654,10 +10657,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10680,17 +10683,17 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10739,7 +10742,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T13:57:04+00:00</t>
+    <t>2024-01-13T14:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T14:40:05+00:00</t>
+    <t>2024-01-13T15:31:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T15:31:15+00:00</t>
+    <t>2024-01-13T16:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T16:17:47+00:00</t>
+    <t>2024-01-13T16:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T16:48:03+00:00</t>
+    <t>2024-02-04T13:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -841,7 +841,7 @@
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
-    <t>Bundesministerium für XY</t>
+    <t>Bundesministerium für Gesundheit</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>Organization.identifier:VKZ.assigner.display</t>
+  </si>
+  <si>
+    <t>Bundesministerium für Finanzen</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -8860,7 +8863,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>74</v>
@@ -8931,10 +8934,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8957,70 +8960,70 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q65" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q65" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9035,24 +9038,24 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9078,16 +9081,16 @@
         <v>175</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9116,7 +9119,7 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9134,7 +9137,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9149,24 +9152,24 @@
         <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9192,16 +9195,16 @@
         <v>154</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9250,7 +9253,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9265,13 +9268,13 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9279,10 +9282,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9308,16 +9311,16 @@
         <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9366,7 +9369,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9384,7 +9387,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9395,10 +9398,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9421,19 +9424,19 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9482,7 +9485,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9491,19 +9494,19 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -9511,10 +9514,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9537,19 +9540,19 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9598,7 +9601,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9607,19 +9610,19 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -9627,10 +9630,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9656,14 +9659,14 @@
         <v>212</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9712,7 +9715,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9727,10 +9730,10 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>158</v>
@@ -9741,10 +9744,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9767,19 +9770,19 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9828,7 +9831,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9846,7 +9849,7 @@
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -9857,10 +9860,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9969,10 +9972,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10083,14 +10086,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10112,10 +10115,10 @@
         <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>133</v>
@@ -10170,7 +10173,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10199,10 +10202,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10228,14 +10231,14 @@
         <v>175</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10263,10 +10266,10 @@
         <v>180</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>74</v>
@@ -10284,7 +10287,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10302,7 +10305,7 @@
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10313,10 +10316,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10339,17 +10342,17 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10398,7 +10401,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10413,10 +10416,10 @@
         <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10427,10 +10430,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10453,17 +10456,17 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10512,7 +10515,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10527,10 +10530,10 @@
         <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10541,10 +10544,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10567,19 +10570,19 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10628,7 +10631,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10637,19 +10640,19 @@
         <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -10657,10 +10660,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10683,17 +10686,17 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10742,7 +10745,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-04T13:28:51+00:00</t>
+    <t>2024-02-16T09:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
